--- a/BackTest/2020-01-12 BackTest BTC.xlsx
+++ b/BackTest/2020-01-12 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3421,11 +3421,17 @@
         <v>-82.22440333000003</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9034000</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3460,17 @@
         <v>-79.81200333000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9031000</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3499,17 @@
         <v>-73.58190333000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>9034000</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3538,17 @@
         <v>-73.81980333000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>9039000</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3577,17 @@
         <v>-73.80620333000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9037000</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,7 +3616,7 @@
         <v>-71.89160333000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>9040000</v>
@@ -3594,7 +3624,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3625,7 +3655,7 @@
         <v>-80.88440589000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>9048000</v>
@@ -3664,7 +3694,7 @@
         <v>-80.07080589000002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>9043000</v>
@@ -3703,9 +3733,11 @@
         <v>-81.78910589000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9049000</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3740,9 +3772,11 @@
         <v>-81.08380589000002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9043000</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3777,9 +3811,11 @@
         <v>-81.08380589000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9049000</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -3814,9 +3850,11 @@
         <v>-83.75440589000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>9049000</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -3851,7 +3889,7 @@
         <v>-84.05980589000002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>9043000</v>
@@ -3890,7 +3928,7 @@
         <v>-84.04710589000003</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>9040000</v>
@@ -3929,9 +3967,11 @@
         <v>-84.20880589000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>9049000</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -3966,9 +4006,11 @@
         <v>-82.71380589000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>9040000</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4003,9 +4045,11 @@
         <v>-83.01860589000002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9050000</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4040,7 +4084,7 @@
         <v>-80.82030589000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>9040000</v>
@@ -4079,7 +4123,7 @@
         <v>-80.80160589000002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>9041000</v>
@@ -4118,7 +4162,7 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>9045000</v>
@@ -4157,7 +4201,7 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>9053000</v>
@@ -4196,7 +4240,7 @@
         <v>-69.35717000000002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>9053000</v>
@@ -4235,7 +4279,7 @@
         <v>-68.35717000000002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>9060000</v>
@@ -4274,7 +4318,7 @@
         <v>-68.52830752000003</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>9062000</v>
@@ -4313,11 +4357,9 @@
         <v>-70.07170752000003</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9054000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4352,9 +4394,11 @@
         <v>-69.89757725000003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>9045000</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4389,9 +4433,11 @@
         <v>-74.73747725000003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>9047000</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4426,7 +4472,7 @@
         <v>-75.26687725000002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>9044000</v>
@@ -4465,7 +4511,7 @@
         <v>-74.15357725000003</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>9043000</v>
@@ -4504,7 +4550,7 @@
         <v>-70.49157141000002</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>9053000</v>
@@ -4543,7 +4589,7 @@
         <v>-59.60761477000002</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>9056000</v>
@@ -4582,7 +4628,7 @@
         <v>-60.67261477000002</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>9081000</v>
@@ -4621,7 +4667,7 @@
         <v>-56.27661477000002</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>9074000</v>
@@ -4660,7 +4706,7 @@
         <v>-48.01730220000002</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>9087000</v>
@@ -4699,11 +4745,9 @@
         <v>-53.04780220000002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>9092000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4738,11 +4782,9 @@
         <v>-52.41370227000002</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>9085000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4777,11 +4819,9 @@
         <v>-30.63740227000002</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>9091000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4816,11 +4856,9 @@
         <v>-26.47320227000002</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>9100000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4855,11 +4893,9 @@
         <v>-36.91050227000002</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9113000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4894,11 +4930,9 @@
         <v>-34.49990227000002</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>9106000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -20843,16 +20877,18 @@
         <v>59.61064276999998</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L562" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
       <c r="M562" t="inlineStr"/>
     </row>
     <row r="563">
@@ -20878,11 +20914,15 @@
         <v>62.44184276999998</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +20951,15 @@
         <v>73.46804282999997</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +20988,15 @@
         <v>77.29939391999997</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21025,15 @@
         <v>89.20935293999997</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21062,15 @@
         <v>110.19234073</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21099,15 @@
         <v>102.71746137</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21136,15 @@
         <v>96.07076278999996</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21173,15 @@
         <v>100.34086421</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21210,15 @@
         <v>98.49274175999996</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21251,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +21288,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +21325,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21362,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +21399,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21436,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21373,14 +21469,16 @@
         <v>95.82018256999996</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="inlineStr"/>
     </row>
     <row r="579">
@@ -21406,7 +21504,7 @@
         <v>97.46588256999996</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21439,7 +21537,7 @@
         <v>94.12581386999996</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21472,7 +21570,7 @@
         <v>95.66761386999995</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21505,7 +21603,7 @@
         <v>93.54055203999995</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21538,7 +21636,7 @@
         <v>90.20948593999995</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21571,7 +21669,7 @@
         <v>88.67272510999994</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21604,7 +21702,7 @@
         <v>84.54932510999994</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21637,7 +21735,7 @@
         <v>79.40336795999994</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21670,7 +21768,7 @@
         <v>76.78576795999994</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21703,7 +21801,7 @@
         <v>81.55226795999994</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21736,7 +21834,7 @@
         <v>61.14476795999994</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22132,7 +22230,7 @@
         <v>48.28409350999996</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22165,7 +22263,7 @@
         <v>45.08237071999996</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22198,7 +22296,7 @@
         <v>41.44227071999996</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22231,7 +22329,7 @@
         <v>32.96817066999996</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22264,7 +22362,7 @@
         <v>31.66387066999996</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22297,7 +22395,7 @@
         <v>24.73547069999996</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22330,7 +22428,7 @@
         <v>20.53337069999996</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22363,7 +22461,7 @@
         <v>28.82329477999996</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22396,7 +22494,7 @@
         <v>12.30679477999996</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22429,7 +22527,7 @@
         <v>6.768194779999962</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22462,7 +22560,7 @@
         <v>17.97379477999996</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22495,7 +22593,7 @@
         <v>5.477994779999964</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22528,7 +22626,7 @@
         <v>10.72929477999996</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22561,7 +22659,7 @@
         <v>1.546094779999965</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22594,7 +22692,7 @@
         <v>5.911109569999965</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22627,7 +22725,7 @@
         <v>5.452209569999965</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22660,7 +22758,7 @@
         <v>7.692609539999966</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22693,7 +22791,7 @@
         <v>12.09030953999997</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22726,7 +22824,7 @@
         <v>37.93999288999996</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22759,7 +22857,7 @@
         <v>40.30622269999996</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24838,7 +24936,7 @@
         <v>77.71963135999989</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24904,7 +25002,7 @@
         <v>81.6653019799999</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25102,7 +25200,7 @@
         <v>80.3358382799999</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25168,7 +25266,7 @@
         <v>70.01783030999991</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25234,7 +25332,7 @@
         <v>66.82863030999991</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25267,7 +25365,7 @@
         <v>66.83383030999991</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -46794,6 +46892,6 @@
       <c r="M1348" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BTC.xlsx
+++ b/BackTest/2020-01-12 BackTest BTC.xlsx
@@ -517,7 +517,7 @@
         <v>49.42893298999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -3982,11 +3982,17 @@
         <v>-80.82030589000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9040000</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4021,17 @@
         <v>-80.80160589000002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>9041000</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4060,17 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9045000</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4099,17 @@
         <v>-79.89507000000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>9053000</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4138,17 @@
         <v>-69.35717000000002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>9053000</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4177,17 @@
         <v>-68.35717000000002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9060000</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4216,17 @@
         <v>-68.52830752000003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9062000</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4255,17 @@
         <v>-70.07170752000003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>9054000</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4294,17 @@
         <v>-69.89757725000003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>9045000</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4333,17 @@
         <v>-74.73747725000003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>9047000</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4372,17 @@
         <v>-75.26687725000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>9044000</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4411,17 @@
         <v>-74.15357725000003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>9043000</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4450,17 @@
         <v>-70.49157141000002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>9053000</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4489,17 @@
         <v>-59.60761477000002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9056000</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4528,17 @@
         <v>-60.67261477000002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9081000</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4567,17 @@
         <v>-56.27661477000002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9074000</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4606,17 @@
         <v>-48.01730220000002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>9087000</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4645,17 @@
         <v>-53.04780220000002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9092000</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4684,17 @@
         <v>-52.41370227000002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>9085000</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4723,17 @@
         <v>-30.63740227000002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9091000</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4766,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4803,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4840,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4877,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4914,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4951,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4988,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5025,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5062,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5099,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5136,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5173,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5210,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5247,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5284,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5321,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5358,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5395,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5432,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5465,15 @@
         <v>11.69440009999998</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5502,15 @@
         <v>20.26750009999998</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5539,15 @@
         <v>21.79920009999998</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5576,15 @@
         <v>10.99212574999998</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5613,15 @@
         <v>10.06460337999998</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5650,15 @@
         <v>15.27978100999998</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5687,15 @@
         <v>1.18784458999998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5724,15 @@
         <v>0.7048436399999797</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5761,15 @@
         <v>1.03513325999998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5798,15 @@
         <v>8.722087949999979</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5835,15 @@
         <v>7.71278794999998</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5872,15 @@
         <v>4.930187949999979</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5909,15 @@
         <v>7.412887949999979</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5946,15 @@
         <v>9.289987949999979</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5983,15 @@
         <v>9.139187949999979</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6024,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6057,15 @@
         <v>12.79759127999998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6094,15 @@
         <v>10.93849127999998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6131,15 @@
         <v>10.95339127999998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6168,15 @@
         <v>11.34819127999998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6205,15 @@
         <v>13.31559127999998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6242,15 @@
         <v>12.83849127999998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6279,15 @@
         <v>3.313991279999978</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6316,15 @@
         <v>0.8409912799999786</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6353,15 @@
         <v>-1.693906640000022</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6390,15 @@
         <v>-1.655597800000022</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6427,15 @@
         <v>-1.855597800000022</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6464,15 @@
         <v>-2.432897800000021</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6501,15 @@
         <v>-2.432897800000021</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6538,15 @@
         <v>-5.370397800000021</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6579,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6616,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6653,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6690,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6727,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6764,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6801,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6838,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6875,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6912,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6949,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6986,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7023,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7060,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7097,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7134,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7171,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7208,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7245,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7282,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7319,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7356,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7393,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7430,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7467,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7504,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7541,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7578,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7615,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7652,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7689,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7726,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7763,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7800,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7837,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7874,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7911,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7948,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7985,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8022,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8059,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8096,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8133,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8170,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8207,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8244,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8281,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8318,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8355,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8392,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8429,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8466,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8503,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8540,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8577,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8614,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8651,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8688,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8725,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8762,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8799,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8836,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8873,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8910,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8947,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8984,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +9021,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +9058,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +9095,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +9132,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9169,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9206,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9243,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9280,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9317,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9354,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9391,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9428,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9465,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9502,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9539,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9576,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9613,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9650,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9687,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9724,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9761,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9798,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9835,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9872,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9909,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9946,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9983,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +10020,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10057,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +10094,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +10131,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +10168,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10205,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10242,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10279,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10316,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10353,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10390,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10427,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10464,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10501,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10538,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10575,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10612,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10649,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10686,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10723,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10760,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10797,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10834,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10871,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10908,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10945,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10982,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11019,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11056,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +11093,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +11130,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +11167,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11204,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11241,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11278,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11315,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11352,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11389,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11426,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11463,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11500,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11537,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11574,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11611,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11648,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11685,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11722,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11759,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11796,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11833,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11870,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11907,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11944,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11981,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +12018,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +12055,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +12092,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +12129,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +12166,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +12203,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +12240,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +12277,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12314,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +12351,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +12388,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +12425,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12462,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12499,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12536,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12573,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12610,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12647,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12684,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12721,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12758,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12795,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12832,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12869,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12906,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12943,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12980,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +13017,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +13054,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +13091,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +13128,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +13165,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +13202,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +13239,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +13276,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +13313,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +13350,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +13387,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +13424,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +13461,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +13498,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +13535,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +13572,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +13609,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +13646,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13683,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +13720,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13757,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +13794,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +13831,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +13868,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13905,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13942,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13979,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +14016,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +14053,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +14090,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +14127,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +14164,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +14201,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +14238,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +14275,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +14312,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +14349,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +14386,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +14423,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +14460,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +14497,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +14534,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +14571,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +14608,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +14645,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +14682,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +14719,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +14756,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14793,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +14830,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +14867,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +14904,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14941,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14978,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +15015,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +15052,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +15089,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +15126,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +15163,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +15200,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +15237,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +15274,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +15311,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +15348,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +15385,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +15422,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +15459,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +15496,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +15533,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +15570,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +15607,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +15644,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +15681,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +15718,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +15755,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +15792,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +15829,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +15866,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +15903,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15940,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15977,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +16014,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +16051,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +16088,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +16125,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +16162,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +16199,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +16236,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +16273,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +16310,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +16347,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +16384,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +16421,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +16458,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +16495,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +16532,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +16569,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +16606,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +16643,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +16680,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +16717,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +16754,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +16791,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +16828,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +16865,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +16902,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16939,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +16976,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +17013,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +17050,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +17087,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +17124,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +17161,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +17198,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +17235,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +17272,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +17309,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +17346,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +17383,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +17420,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +17457,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +17494,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +17531,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +17568,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +17605,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +17642,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +17679,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +17712,15 @@
         <v>44.00946117999995</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +17749,15 @@
         <v>49.50016959999994</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +17790,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +17823,15 @@
         <v>34.43776959999995</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +17864,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +17901,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +17938,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +17975,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +18012,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +18049,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +18086,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +18123,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +18160,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +18197,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +18234,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +18271,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +18308,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +18345,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +18382,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +18419,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +18456,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +18493,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +18530,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +18567,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +18604,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +18641,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +18678,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +18711,15 @@
         <v>31.57617785999994</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +18752,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +18789,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +18826,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +18863,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +18900,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +18937,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +18974,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +19011,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +19048,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +19085,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +19122,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +19159,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +19196,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +19233,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +19270,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +19307,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +19344,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +19381,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +19418,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +19455,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +19492,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +19529,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +19566,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +19603,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +19640,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +19677,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +19714,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +19751,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +19788,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +19825,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +19862,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +19899,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +19936,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +19973,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +20010,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +20047,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +20084,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +20121,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +20158,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +20195,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +20232,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +20269,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +20306,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +20343,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +20380,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +20417,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +20454,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +20491,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +20528,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +20565,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +20602,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +20639,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +20676,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +20713,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +20750,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +20787,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +20824,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +20861,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +20898,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +20935,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +20972,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,14 +21005,16 @@
         <v>102.71746137</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="inlineStr"/>
     </row>
     <row r="569">
@@ -19162,7 +21040,7 @@
         <v>96.07076278999996</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +21073,7 @@
         <v>100.34086421</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +21106,7 @@
         <v>98.49274175999996</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +21139,7 @@
         <v>108.22574176</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +21172,7 @@
         <v>111.97474176</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +21205,7 @@
         <v>101.34354176</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +21238,7 @@
         <v>95.67706357999997</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +21271,7 @@
         <v>91.31768256999996</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +21304,7 @@
         <v>89.33058256999996</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +21337,7 @@
         <v>95.82018256999996</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +21370,7 @@
         <v>97.46588256999996</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +21403,7 @@
         <v>94.12581386999996</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +21436,7 @@
         <v>95.66761386999995</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +21469,7 @@
         <v>93.54055203999995</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +21502,7 @@
         <v>90.20948593999995</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +21535,7 @@
         <v>88.67272510999994</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +21568,7 @@
         <v>84.54932510999994</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +21601,7 @@
         <v>79.40336795999994</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +21634,7 @@
         <v>76.78576795999994</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +21667,7 @@
         <v>81.55226795999994</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +21700,7 @@
         <v>61.14476795999994</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +21733,7 @@
         <v>55.93766795999994</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +21766,7 @@
         <v>45.16286795999994</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -38368,17 +40246,11 @@
         <v>-86.63087687000014</v>
       </c>
       <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>9103000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38411,11 +40283,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38448,11 +40316,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38485,11 +40349,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38522,11 +40382,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38559,11 +40415,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38592,17 +40444,11 @@
         <v>-87.30747687000013</v>
       </c>
       <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>9100000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38631,17 +40477,11 @@
         <v>-91.25357687000013</v>
       </c>
       <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>9101000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38670,17 +40510,11 @@
         <v>-91.62677687000013</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>9095000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38709,17 +40543,11 @@
         <v>-95.19597687000012</v>
       </c>
       <c r="H1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>9094000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38748,17 +40576,11 @@
         <v>-103.4560768700001</v>
       </c>
       <c r="H1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1161" t="n">
-        <v>9091000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38787,17 +40609,11 @@
         <v>-108.6921768700001</v>
       </c>
       <c r="H1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1162" t="n">
-        <v>9087000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38826,17 +40642,11 @@
         <v>-113.3661768700001</v>
       </c>
       <c r="H1163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1163" t="n">
-        <v>9076000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38865,17 +40675,11 @@
         <v>-113.3661768700001</v>
       </c>
       <c r="H1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1164" t="n">
-        <v>9070000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38904,17 +40708,11 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1165" t="n">
-        <v>9070000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38943,17 +40741,11 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1166" t="n">
-        <v>9079000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38982,17 +40774,11 @@
         <v>-106.6967066300001</v>
       </c>
       <c r="H1167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1167" t="n">
-        <v>9079000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39021,17 +40807,11 @@
         <v>-104.6627066300001</v>
       </c>
       <c r="H1168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1168" t="n">
-        <v>9079000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39060,17 +40840,11 @@
         <v>-101.6084066300001</v>
       </c>
       <c r="H1169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1169" t="n">
-        <v>9089000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39099,17 +40873,11 @@
         <v>-99.38059464000011</v>
       </c>
       <c r="H1170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1170" t="n">
-        <v>9091000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39138,17 +40906,11 @@
         <v>-102.6619872700001</v>
       </c>
       <c r="H1171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1171" t="n">
-        <v>9103000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39177,17 +40939,11 @@
         <v>-99.69039926000011</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1172" t="n">
-        <v>9096000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39216,17 +40972,11 @@
         <v>-99.69039926000011</v>
       </c>
       <c r="H1173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1173" t="n">
-        <v>9103000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39259,11 +41009,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39296,11 +41042,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39333,11 +41075,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39366,17 +41104,11 @@
         <v>-118.1144398800001</v>
       </c>
       <c r="H1177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1177" t="n">
-        <v>9093000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39405,17 +41137,11 @@
         <v>-116.9575398800001</v>
       </c>
       <c r="H1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1178" t="n">
-        <v>9090000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39444,17 +41170,11 @@
         <v>-116.1878398800001</v>
       </c>
       <c r="H1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1179" t="n">
-        <v>9097000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39483,17 +41203,11 @@
         <v>-116.1738398800001</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>9100000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39522,17 +41236,11 @@
         <v>-109.0816398800001</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>9102000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39565,11 +41273,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39602,11 +41306,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39639,11 +41339,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39676,11 +41372,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39713,11 +41405,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39750,11 +41438,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39787,11 +41471,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39824,11 +41504,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39861,11 +41537,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39898,11 +41570,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39935,11 +41603,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39972,11 +41636,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40009,11 +41669,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40046,11 +41702,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40083,11 +41735,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40120,11 +41768,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40157,11 +41801,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40194,11 +41834,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40231,11 +41867,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40268,11 +41900,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40305,11 +41933,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40342,11 +41966,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40375,13 +41995,15 @@
         <v>-110.7352398800001</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>9092000</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1204" t="n">
@@ -40597,9 +42219,11 @@
         <v>-110.3580979800001</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>9095000</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40634,9 +42258,11 @@
         <v>-106.4809289900001</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>9094000</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -40671,9 +42297,11 @@
         <v>-104.6379289900001</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>9108000</v>
+      </c>
       <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
@@ -40708,9 +42336,11 @@
         <v>-105.6149289900001</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>9109000</v>
+      </c>
       <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
@@ -40745,9 +42375,11 @@
         <v>-105.8468289900001</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>9099000</v>
+      </c>
       <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
@@ -40782,9 +42414,11 @@
         <v>-105.6653350900001</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>9096000</v>
+      </c>
       <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
@@ -40819,9 +42453,11 @@
         <v>-105.8932350900001</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>9101000</v>
+      </c>
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
@@ -40856,9 +42492,11 @@
         <v>-105.8932350900001</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>9100000</v>
+      </c>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
@@ -40893,9 +42531,11 @@
         <v>-100.6115258000001</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>9100000</v>
+      </c>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -40930,9 +42570,11 @@
         <v>-100.6871258000001</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>9109000</v>
+      </c>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
@@ -40967,9 +42609,11 @@
         <v>-99.04002580000014</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>9101000</v>
+      </c>
       <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
@@ -41004,9 +42648,11 @@
         <v>-98.40612580000014</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>9106000</v>
+      </c>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41041,9 +42687,11 @@
         <v>-98.40612580000014</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>9110000</v>
+      </c>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
@@ -41374,9 +43022,11 @@
         <v>-99.39377957000015</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>9112000</v>
+      </c>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41411,9 +43061,11 @@
         <v>-99.69767957000015</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>9119000</v>
+      </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41522,9 +43174,11 @@
         <v>-105.4244795700001</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>9111000</v>
+      </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
@@ -41633,9 +43287,11 @@
         <v>-106.2200795700001</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>9108000</v>
+      </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41670,9 +43326,11 @@
         <v>-106.3153795700001</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>9106000</v>
+      </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41707,9 +43365,11 @@
         <v>-106.2642795700001</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>9102000</v>
+      </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -41744,9 +43404,11 @@
         <v>-106.0217795700001</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>9104000</v>
+      </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41781,9 +43443,11 @@
         <v>-105.8071795700001</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>9107000</v>
+      </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41818,9 +43482,11 @@
         <v>-106.0655795700001</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>9108000</v>
+      </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41855,9 +43521,11 @@
         <v>-106.0655795700001</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>9107000</v>
+      </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41892,9 +43560,11 @@
         <v>-105.7936795700001</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>9107000</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41929,9 +43599,11 @@
         <v>-111.4485795700001</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>9110000</v>
+      </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41966,9 +43638,11 @@
         <v>-111.4810795700001</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>9107000</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42003,9 +43677,11 @@
         <v>-107.0587062400001</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>9105000</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42040,9 +43716,11 @@
         <v>-107.0587062400001</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>9113000</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42114,9 +43792,11 @@
         <v>-107.1941062400001</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>9105000</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42151,9 +43831,11 @@
         <v>-107.1941062400001</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>9108000</v>
+      </c>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
@@ -42188,9 +43870,11 @@
         <v>-102.4956062400001</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>9108000</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42262,9 +43946,11 @@
         <v>-102.2291795700001</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>9112000</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42299,9 +43985,11 @@
         <v>-104.9891795700001</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>9119000</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42336,9 +44024,11 @@
         <v>-102.7140795700001</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>9114000</v>
+      </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42373,9 +44063,11 @@
         <v>-102.8127795700001</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>9117000</v>
+      </c>
       <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42410,9 +44102,11 @@
         <v>-102.5920434900001</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>9116000</v>
+      </c>
       <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42447,9 +44141,11 @@
         <v>-103.4176034900001</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>9119000</v>
+      </c>
       <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42484,9 +44180,11 @@
         <v>-103.4176034900001</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>9116000</v>
+      </c>
       <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42521,9 +44219,11 @@
         <v>-101.4763034900001</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>9116000</v>
+      </c>
       <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
@@ -42558,9 +44258,11 @@
         <v>-108.0003082000001</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>9119000</v>
+      </c>
       <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
@@ -42595,9 +44297,11 @@
         <v>-107.4289082000001</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>9117000</v>
+      </c>
       <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
@@ -42632,9 +44336,11 @@
         <v>-102.2165089900001</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>9125000</v>
+      </c>
       <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
@@ -43594,9 +45300,11 @@
         <v>-124.1209792500001</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>9128000</v>
+      </c>
       <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
@@ -43668,9 +45376,11 @@
         <v>-123.6704792500001</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>9127000</v>
+      </c>
       <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
@@ -43705,9 +45415,11 @@
         <v>-121.2451792500001</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>9131000</v>
+      </c>
       <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
@@ -43964,9 +45676,11 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>9129000</v>
+      </c>
       <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
@@ -44001,9 +45715,11 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>9118000</v>
+      </c>
       <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
@@ -44038,9 +45754,11 @@
         <v>-122.7793812600001</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>9118000</v>
+      </c>
       <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
@@ -44075,9 +45793,11 @@
         <v>-122.7187812600001</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>9118000</v>
+      </c>
       <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
@@ -44112,9 +45832,11 @@
         <v>-122.7187812600001</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>9125000</v>
+      </c>
       <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
@@ -44449,11 +46171,9 @@
         <v>-112.2341107100001</v>
       </c>
       <c r="H1314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1314" t="n">
-        <v>9124000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
@@ -44488,11 +46208,9 @@
         <v>-112.2341107100001</v>
       </c>
       <c r="H1315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1315" t="n">
-        <v>9122000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
@@ -44527,11 +46245,9 @@
         <v>-113.2733107100001</v>
       </c>
       <c r="H1316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1316" t="n">
-        <v>9122000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
@@ -44566,11 +46282,9 @@
         <v>-109.9803571300001</v>
       </c>
       <c r="H1317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1317" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
@@ -44605,11 +46319,9 @@
         <v>-109.9559571300001</v>
       </c>
       <c r="H1318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1318" t="n">
-        <v>9122000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
@@ -44644,11 +46356,9 @@
         <v>-110.1088571300001</v>
       </c>
       <c r="H1319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1319" t="n">
-        <v>9133000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
@@ -44683,11 +46393,9 @@
         <v>-112.1125571300001</v>
       </c>
       <c r="H1320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1320" t="n">
-        <v>9130000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
@@ -44722,11 +46430,9 @@
         <v>-112.5519571300001</v>
       </c>
       <c r="H1321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1321" t="n">
-        <v>9121000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
@@ -44761,11 +46467,9 @@
         <v>-113.0503571300001</v>
       </c>
       <c r="H1322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1322" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
@@ -44800,11 +46504,9 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1323" t="n">
-        <v>9116000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
@@ -44839,11 +46541,9 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1324" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
@@ -44878,11 +46578,9 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1325" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
@@ -44917,11 +46615,9 @@
         <v>-111.8251571300001</v>
       </c>
       <c r="H1326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1326" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
@@ -44956,11 +46652,9 @@
         <v>-112.3161850900001</v>
       </c>
       <c r="H1327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1327" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
@@ -44995,11 +46689,9 @@
         <v>-112.1454850900001</v>
       </c>
       <c r="H1328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1328" t="n">
-        <v>9114000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
@@ -45073,11 +46765,9 @@
         <v>-107.6644410100001</v>
       </c>
       <c r="H1330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1330" t="n">
-        <v>9124000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
@@ -45151,11 +46841,9 @@
         <v>-107.0567772000001</v>
       </c>
       <c r="H1332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1332" t="n">
-        <v>9128000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
@@ -45227,11 +46915,9 @@
         <v>-106.9309577700001</v>
       </c>
       <c r="H1334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1334" t="n">
-        <v>9128000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
@@ -45266,11 +46952,9 @@
         <v>-106.9309577700001</v>
       </c>
       <c r="H1335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1335" t="n">
-        <v>9128000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
@@ -45305,11 +46989,9 @@
         <v>-102.8231578200001</v>
       </c>
       <c r="H1336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1336" t="n">
-        <v>9128000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
       <c r="K1336" t="inlineStr">
         <is>
@@ -45344,11 +47026,9 @@
         <v>-102.8231578200001</v>
       </c>
       <c r="H1337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1337" t="n">
-        <v>9136000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
